--- a/resources/testdata/AUTOM/excel/TaskManager/TC-419.xlsx
+++ b/resources/testdata/AUTOM/excel/TaskManager/TC-419.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Projects\Playwright\Workspace\PlaywrightProject\resources\testdata\APPRL\excel\TaskManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Projects\Playwright\Workspace\PlaywrightProject\resources\testdata\AUTOM\excel\TaskManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8C38F0-7C9B-4F2E-9423-4715C5538C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E2FBE5-EE99-4C6B-8315-4C27B331A048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Key</t>
   </si>
@@ -33,10 +33,40 @@
     <t>Value</t>
   </si>
   <si>
-    <t>MainMenu</t>
-  </si>
-  <si>
-    <t>More</t>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>Program Project Test ZTM 5555</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ProjectEndDay</t>
+  </si>
+  <si>
+    <t>ProjectTag</t>
+  </si>
+  <si>
+    <t>Action Project</t>
+  </si>
+  <si>
+    <t>ProjectNotes</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A change like this can be difficult to adjust to, so these tasks are assigned to ensure all Kitchen associates understand this new process, as well as countertop quoting basics.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>ProjectAttachmentName</t>
+  </si>
+  <si>
+    <t>Simple Project Attachment.jpg</t>
+  </si>
+  <si>
+    <t>ProjectGridColumnIndex</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -106,13 +136,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,16 +430,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="145.88671875" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -422,6 +459,122 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
